--- a/assets/AssetDB.xlsx
+++ b/assets/AssetDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200274772\GitLab\Crawler-Projektpraktikum\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1182BE2-AFD7-4E63-AF6D-56D99D79AF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43264146-5517-41AB-A97A-8D08EC983D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3F5CE5B-25EC-484D-8705-D10708A494B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B3F5CE5B-25EC-484D-8705-D10708A494B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="19">
+  <futureMetadata name="XLRICHVALUE" count="22">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -174,8 +174,29 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="19">
+  <valueMetadata count="22">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -232,13 +253,22 @@
     </bk>
     <bk>
       <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Category</t>
   </si>
@@ -361,6 +391,18 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>rat-merchant-rug.png</t>
+  </si>
+  <si>
+    <t>danger_marker.png</t>
+  </si>
+  <si>
+    <t>heal_marker.png</t>
+  </si>
+  <si>
+    <t>Jorin</t>
   </si>
 </sst>
 </file>
@@ -809,6 +851,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -816,15 +867,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -913,7 +955,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="19">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="22">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -988,6 +1030,18 @@
   </rv>
   <rv s="0">
     <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1023,12 +1077,15 @@
   <rel r:id="rId17"/>
   <rel r:id="rId18"/>
   <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:D26" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D31" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E1B98A4C-EE91-454F-B8D7-8CF3EEAB7D54}" name="Category" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1FDB1714-61BC-4DE3-9510-5783E3C5F52E}" name="Name" dataDxfId="2"/>
@@ -1356,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B40B6-A108-4343-8456-7741D8A067D3}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,11 +1763,65 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+    <row r="26" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="13" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="2" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/assets/AssetDB.xlsx
+++ b/assets/AssetDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200274772\GitLab\Crawler-Projektpraktikum\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telekom-my.sharepoint.de/personal/tim_richstein_telekom_de/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43264146-5517-41AB-A97A-8D08EC983D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{AB019912-CEB7-4DDC-8139-749B70562075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CB727F-B3BB-4DFC-A10B-32D142047237}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B3F5CE5B-25EC-484D-8705-D10708A494B7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="22">
+  <futureMetadata name="XLRICHVALUE" count="31">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -195,8 +195,71 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="22">
+  <valueMetadata count="31">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -262,13 +325,40 @@
     </bk>
     <bk>
       <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
+    </bk>
+    <bk>
+      <rc t="1" v="29"/>
+    </bk>
+    <bk>
+      <rc t="1" v="30"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -403,6 +493,39 @@
   </si>
   <si>
     <t>Jorin</t>
+  </si>
+  <si>
+    <t>Item-Truhe.png</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Truhe-Mimic.png</t>
+  </si>
+  <si>
+    <t>Orc-Idle.png</t>
+  </si>
+  <si>
+    <t>Level-Boss</t>
+  </si>
+  <si>
+    <t>Carnivorous-Plant-Boss.png</t>
+  </si>
+  <si>
+    <t>Item-sold-Hammer.png</t>
+  </si>
+  <si>
+    <t>Goblin.png</t>
+  </si>
+  <si>
+    <t>Mülltonne.png</t>
+  </si>
+  <si>
+    <t>Wendigo-32x32-Boss-Snow-Idle.png</t>
+  </si>
+  <si>
+    <t>Fight-Animation-3Hit.png</t>
   </si>
 </sst>
 </file>
@@ -689,8 +812,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -955,7 +1078,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="22">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="31">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1042,6 +1165,42 @@
   </rv>
   <rv s="0">
     <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>27</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>28</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>29</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>30</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1080,12 +1239,21 @@
   <rel r:id="rId20"/>
   <rel r:id="rId21"/>
   <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
+  <rel r:id="rId26"/>
+  <rel r:id="rId27"/>
+  <rel r:id="rId28"/>
+  <rel r:id="rId29"/>
+  <rel r:id="rId30"/>
+  <rel r:id="rId31"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D31" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D40" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E1B98A4C-EE91-454F-B8D7-8CF3EEAB7D54}" name="Category" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1FDB1714-61BC-4DE3-9510-5783E3C5F52E}" name="Name" dataDxfId="2"/>
@@ -1097,7 +1265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1413,13 +1581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B40B6-A108-4343-8456-7741D8A067D3}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
@@ -1806,22 +1974,148 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="13" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="13" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1840,4 +2134,10 @@
     <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{bde4dffc-4b60-4cf6-8b04-a5eeb25f5c4f}" enabled="0" method="" siteId="{bde4dffc-4b60-4cf6-8b04-a5eeb25f5c4f}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/assets/AssetDB.xlsx
+++ b/assets/AssetDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telekom-my.sharepoint.de/personal/tim_richstein_telekom_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200274772\GitHub\Crawler-Projektpraktikum\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{AB019912-CEB7-4DDC-8139-749B70562075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8CB727F-B3BB-4DFC-A10B-32D142047237}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F214C6-8587-4824-8FB1-B6DBAE7079DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B3F5CE5B-25EC-484D-8705-D10708A494B7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="31">
+  <futureMetadata name="XLRICHVALUE" count="39">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -258,8 +258,64 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="34"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="35"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="38"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="31">
+  <valueMetadata count="39">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -352,13 +408,37 @@
     </bk>
     <bk>
       <rc t="1" v="30"/>
+    </bk>
+    <bk>
+      <rc t="1" v="31"/>
+    </bk>
+    <bk>
+      <rc t="1" v="32"/>
+    </bk>
+    <bk>
+      <rc t="1" v="33"/>
+    </bk>
+    <bk>
+      <rc t="1" v="34"/>
+    </bk>
+    <bk>
+      <rc t="1" v="35"/>
+    </bk>
+    <bk>
+      <rc t="1" v="36"/>
+    </bk>
+    <bk>
+      <rc t="1" v="37"/>
+    </bk>
+    <bk>
+      <rc t="1" v="38"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -420,9 +500,6 @@
     <t>walls_ivy.png</t>
   </si>
   <si>
-    <t>https://aekae13.itch.io/16x16-dungeon-walls-reconfig</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
@@ -465,15 +542,6 @@
     <t>Player Character</t>
   </si>
   <si>
-    <t>https://erisesra.itch.io/character-templates-pack</t>
-  </si>
-  <si>
-    <t>16x16 Idle-Sheet.png</t>
-  </si>
-  <si>
-    <t>16x16 Walk-Sheet.png</t>
-  </si>
-  <si>
     <t>rat.png</t>
   </si>
   <si>
@@ -526,6 +594,39 @@
   </si>
   <si>
     <t>Fight-Animation-3Hit.png</t>
+  </si>
+  <si>
+    <t>https://erisesra.itch.io/character-templates-pack, Patricia, David</t>
+  </si>
+  <si>
+    <t>player-character-idol-dressed.png</t>
+  </si>
+  <si>
+    <t>player-character-walking-dressed.png</t>
+  </si>
+  <si>
+    <t>base_zombie.png</t>
+  </si>
+  <si>
+    <t>https://erisesra.itch.io/character-templates-pack, David</t>
+  </si>
+  <si>
+    <t>zombie_burrow_burst.png</t>
+  </si>
+  <si>
+    <t>https://aekae13.itch.io/16x16-dungeon-walls-reconfig, Patricia</t>
+  </si>
+  <si>
+    <t>https://aekae13.itch.io/16x16-dungeon-walls-, Patricia</t>
+  </si>
+  <si>
+    <t>walls_skull.png</t>
+  </si>
+  <si>
+    <t>death_marker.png</t>
+  </si>
+  <si>
+    <t>safe_marker.png</t>
   </si>
 </sst>
 </file>
@@ -568,12 +669,9 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -798,22 +896,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1078,7 +1174,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="31">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="39">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1201,6 +1297,38 @@
   </rv>
   <rv s="0">
     <v>30</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>31</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>32</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>33</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>34</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>35</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>36</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>37</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>38</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1248,12 +1376,20 @@
   <rel r:id="rId29"/>
   <rel r:id="rId30"/>
   <rel r:id="rId31"/>
+  <rel r:id="rId32"/>
+  <rel r:id="rId33"/>
+  <rel r:id="rId34"/>
+  <rel r:id="rId35"/>
+  <rel r:id="rId36"/>
+  <rel r:id="rId37"/>
+  <rel r:id="rId38"/>
+  <rel r:id="rId39"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D40" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}" name="Table1" displayName="Table1" ref="A1:D45" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D45" xr:uid="{33703373-9280-482F-8933-8BD3E9BA98E3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E1B98A4C-EE91-454F-B8D7-8CF3EEAB7D54}" name="Category" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1FDB1714-61BC-4DE3-9510-5783E3C5F52E}" name="Name" dataDxfId="2"/>
@@ -1265,7 +1401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1581,13 +1717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B40B6-A108-4343-8456-7741D8A067D3}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
@@ -1692,35 +1828,39 @@
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="e" vm="5">
+      <c r="C8" s="20" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1730,205 +1870,207 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
       <c r="D11" s="10" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="13" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="13" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="16" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="19" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>35</v>
+      <c r="B23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="17" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="19" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>35</v>
+      <c r="A24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="17" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="e" vm="19">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1936,9 +2078,9 @@
         <v>15</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="13" t="e" vm="20">
+        <v>37</v>
+      </c>
+      <c r="C26" s="13" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -1947,30 +2089,30 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="2" t="e" vm="21">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2" t="e" vm="22">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1978,13 +2120,13 @@
         <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="e" vm="23">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,55 +2134,55 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="e" vm="24">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="13" t="e" vm="25">
+        <v>44</v>
+      </c>
+      <c r="C31" s="13" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="e" vm="26">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2" t="e" vm="27">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2048,74 +2190,144 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="2" t="e" vm="28">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2" t="e" vm="29">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="13" t="e" vm="30">
+        <v>50</v>
+      </c>
+      <c r="C36" s="13" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="2" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
+      <c r="C38" s="2" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="13" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="2" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2128,10 +2340,14 @@
     <hyperlink ref="D13:D22" r:id="rId7" display="https://crusenho.itch.io/complete-ui-book-styles-pack" xr:uid="{A4838717-672C-426D-81F5-D114A2D20A29}"/>
     <hyperlink ref="D23" r:id="rId8" xr:uid="{5D1E9A79-DAED-4E54-94A0-2E050C0FB4FB}"/>
     <hyperlink ref="D24" r:id="rId9" xr:uid="{C1C49285-8EBC-473E-8C12-DBB157F3A8C2}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{1FF8D3EF-DD86-4DC1-830F-36FA2B59E905}"/>
+    <hyperlink ref="D38" r:id="rId11" xr:uid="{3F18330B-6975-4355-8A46-6C580C847FB3}"/>
+    <hyperlink ref="D39" r:id="rId12" xr:uid="{C6148396-714B-4295-8D91-B8D3001C92CA}"/>
+    <hyperlink ref="D40" r:id="rId13" xr:uid="{842AF9D9-E809-49FE-9404-90A2B38902D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>

--- a/assets/AssetDB.xlsx
+++ b/assets/AssetDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200274772\GitHub\Crawler-Projektpraktikum\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A200274089\dev\projects\Uni\5.SemesterProjekt\Crawler-Projektpraktikum\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F214C6-8587-4824-8FB1-B6DBAE7079DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648EA484-B657-441B-BBCF-F795A587A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B3F5CE5B-25EC-484D-8705-D10708A494B7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="39">
+  <futureMetadata name="XLRICHVALUE" count="41">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -314,8 +314,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="39"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="40"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="39">
+  <valueMetadata count="41">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -432,13 +446,19 @@
     </bk>
     <bk>
       <rc t="1" v="38"/>
+    </bk>
+    <bk>
+      <rc t="1" v="39"/>
+    </bk>
+    <bk>
+      <rc t="1" v="40"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
   <si>
     <t>Category</t>
   </si>
@@ -627,6 +647,18 @@
   </si>
   <si>
     <t>safe_marker.png</t>
+  </si>
+  <si>
+    <t>Endboss</t>
+  </si>
+  <si>
+    <t>Necromancer-Standing.png</t>
+  </si>
+  <si>
+    <t>Map Tile/ Endboss</t>
+  </si>
+  <si>
+    <t>Necromancer-Sitting.png</t>
   </si>
 </sst>
 </file>
@@ -908,8 +940,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -1174,7 +1206,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="39">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="41">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1329,6 +1361,14 @@
   </rv>
   <rv s="0">
     <v>38</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>39</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>40</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1384,6 +1424,8 @@
   <rel r:id="rId37"/>
   <rel r:id="rId38"/>
   <rel r:id="rId39"/>
+  <rel r:id="rId40"/>
+  <rel r:id="rId41"/>
 </richValueRels>
 </file>
 
@@ -1401,7 +1443,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1719,11 +1761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B40B6-A108-4343-8456-7741D8A067D3}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="93" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
@@ -2312,16 +2354,32 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="10"/>
+      <c r="A43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="2" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
